--- a/Desktop/File/Sample_Formula.xlsx
+++ b/Desktop/File/Sample_Formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\프로그래밍\python\RPA\Excel\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915022E-A6FC-4B45-94F1-D68642ACEFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF3AD0C-CB37-490C-84E4-57E8712C7D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
-        <v>44459.836786764863</v>
+        <v>44472.73235000352</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
